--- a/Requisitos/Requisitos Projeto PI.xlsx
+++ b/Requisitos/Requisitos Projeto PI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PICHAU\Desktop\FACULDADE\Projeto-PI\grupo05\Requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\PROJETO-PI\grupo05\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98693B-5715-474A-BF4D-6FEE5FCD3D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94AD0B0-B554-4A9C-A5D2-F73022EAA543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29205" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Requisito</t>
   </si>
   <si>
-    <t>Os sensores deve gerar os registro sempre</t>
-  </si>
-  <si>
     <t>Os sensores devem comportar as especificações necessárias levantadas</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>A etapa de cadastro do usuário deve exigir, no mínimo, nome completo, e-mail, número de telefone, CPF e Senha</t>
   </si>
   <si>
-    <t>Gráficos devem exibir Temperatura/Umidade por Tempo</t>
-  </si>
-  <si>
     <t>Página deve ter uma barra de busca para procurar dados específicos</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>A página web deve mostrar as estatísticas (analíticas) dos registros</t>
   </si>
   <si>
-    <t>A página web deve contar uma página de alteração de usuários (ADM)</t>
-  </si>
-  <si>
     <t>A página web deve conter uma página de login para usuários (ADM e usuário)</t>
   </si>
   <si>
@@ -199,6 +190,18 @@
   </si>
   <si>
     <t>A página web deve ser intuitivo e conter um visual agradável ao usuário, com cores sutis</t>
+  </si>
+  <si>
+    <t>Gráficos devem exibir Umidade por Tempo</t>
+  </si>
+  <si>
+    <t>Gráficos devem exibir Temperatura por Tempo</t>
+  </si>
+  <si>
+    <t>Os sensores devem gerar os registrod sempre</t>
+  </si>
+  <si>
+    <t>A página web deve conter uma página de alteração de usuários (ADM)</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -389,11 +392,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -430,6 +455,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDFAD85-AFAB-4438-BCE8-D13BE3E6458D}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
@@ -756,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>2</v>
@@ -770,7 +799,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>2</v>
@@ -784,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>2</v>
@@ -798,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
@@ -812,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
@@ -826,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>2</v>
@@ -840,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>2</v>
@@ -854,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>2</v>
@@ -868,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>2</v>
@@ -882,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>2</v>
@@ -896,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>2</v>
@@ -910,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>4</v>
@@ -924,7 +953,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>2</v>
@@ -938,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>2</v>
@@ -952,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>2</v>
@@ -966,7 +995,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>4</v>
@@ -980,7 +1009,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>2</v>
@@ -994,7 +1023,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>2</v>
@@ -1008,7 +1037,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>2</v>
@@ -1023,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>2</v>
@@ -1037,7 +1066,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>5</v>
@@ -1052,7 +1081,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>4</v>
@@ -1067,7 +1096,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>2</v>
@@ -1082,7 +1111,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>2</v>
@@ -1097,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>5</v>
@@ -1112,7 +1141,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>5</v>
@@ -1127,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>2</v>
@@ -1141,7 +1170,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>5</v>
@@ -1155,7 +1184,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>5</v>
@@ -1169,7 +1198,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>2</v>
@@ -1183,7 +1212,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>4</v>
@@ -1197,7 +1226,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>4</v>
@@ -1211,7 +1240,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>5</v>
@@ -1225,7 +1254,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>2</v>
@@ -1239,13 +1268,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,7 +1282,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>5</v>
@@ -1267,7 +1296,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>5</v>
@@ -1281,7 +1310,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>5</v>
@@ -1295,7 +1324,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>4</v>
@@ -1309,7 +1338,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>5</v>
@@ -1323,7 +1352,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>2</v>
@@ -1337,7 +1366,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>4</v>
@@ -1351,7 +1380,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>2</v>
@@ -1365,7 +1394,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>5</v>
@@ -1379,7 +1408,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>4</v>
@@ -1393,7 +1422,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>4</v>
@@ -1407,7 +1436,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>4</v>
@@ -1421,12 +1450,26 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Requisitos/Requisitos Projeto PI.xlsx
+++ b/Requisitos/Requisitos Projeto PI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\PROJETO-PI\grupo05\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94AD0B0-B554-4A9C-A5D2-F73022EAA543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B0560-6016-46C1-B237-EF1D0DD47E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29205" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,7 +742,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Requisitos/Requisitos Projeto PI.xlsx
+++ b/Requisitos/Requisitos Projeto PI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\PROJETO-PI\grupo05\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B0560-6016-46C1-B237-EF1D0DD47E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCE4CE6-DC7F-4989-89C8-CB40582D8694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29205" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,10 +198,10 @@
     <t>Gráficos devem exibir Temperatura por Tempo</t>
   </si>
   <si>
-    <t>Os sensores devem gerar os registrod sempre</t>
-  </si>
-  <si>
     <t>A página web deve conter uma página de alteração de usuários (ADM)</t>
+  </si>
+  <si>
+    <t>Os sensores devem gerar os registros sempre</t>
   </si>
 </sst>
 </file>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDFAD85-AFAB-4438-BCE8-D13BE3E6458D}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
@@ -1126,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>5</v>
